--- a/Bugs.xlsx
+++ b/Bugs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Priority</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Opening new window for highlighted word from already opened window doesn't work, new word doesn't show</t>
+  </si>
+  <si>
+    <t>If translation window is resized too small, the caption bar buttons will overlay each other</t>
   </si>
 </sst>
 </file>
@@ -418,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,18 +500,26 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>3</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C8">
-    <sortCondition ref="A2:A8"/>
+  <sortState ref="A2:C9">
+    <sortCondition ref="A2:A9"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Bugs.xlsx
+++ b/Bugs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Priority</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>If translation window is resized too small, the caption bar buttons will overlay each other</t>
+  </si>
+  <si>
+    <t>Stores the user settings using VisualStudio built-in settings file</t>
   </si>
 </sst>
 </file>
@@ -421,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,45 +484,52 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7"/>
+      <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>3</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C9">
-    <sortCondition ref="A2:A9"/>
+  <sortState ref="A2:C10">
+    <sortCondition ref="A2:A10"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Bugs.xlsx
+++ b/Bugs.xlsx
@@ -427,14 +427,14 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="114" customWidth="1"/>
-    <col min="3" max="3" width="92.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="110.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="90.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -483,11 +483,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -508,11 +508,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>2</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Bugs.xlsx
+++ b/Bugs.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14175"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Priority</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>Stores the user settings using VisualStudio built-in settings file</t>
+  </si>
+  <si>
+    <t>Doesn't work well when invoking from PDF highlighted word</t>
+  </si>
+  <si>
+    <t>Create installation project</t>
   </si>
 </sst>
 </file>
@@ -133,6 +139,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -180,7 +189,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -215,7 +224,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -424,7 +433,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -467,13 +476,12 @@
       <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>1</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -492,44 +500,61 @@
       </c>
     </row>
     <row r="7" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>2</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="5"/>
+      <c r="A7" s="6">
+        <v>1</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
+      <c r="A8" s="6">
+        <v>1</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C12" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C10">
-    <sortCondition ref="A2:A10"/>
+  <sortState ref="A2:C12">
+    <sortCondition ref="A2:A12"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Bugs.xlsx
+++ b/Bugs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Priority</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>Create installation project</t>
+  </si>
+  <si>
+    <t>Store all past words in the cloud for a synchronized view</t>
   </si>
 </sst>
 </file>
@@ -433,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,7 +488,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>10</v>
@@ -516,45 +519,53 @@
       </c>
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+    <row r="9" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>1</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>2</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+    <row r="12" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>2</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>3</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C12">
-    <sortCondition ref="A2:A12"/>
+  <sortState ref="A2:XFD13">
+    <sortCondition ref="A2:A13"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Bugs.xlsx
+++ b/Bugs.xlsx
@@ -439,7 +439,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,27 +487,29 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="A6" s="6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="7"/>
     </row>
     <row r="7" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>1</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -515,17 +517,18 @@
         <v>1</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>1</v>
+      <c r="A9" s="3">
+        <v>2</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>15</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C9"/>
     </row>
     <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -564,7 +567,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:XFD13">
+  <sortState ref="A2:C13">
     <sortCondition ref="A2:A13"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Bugs.xlsx
+++ b/Bugs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14175"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Priority</t>
   </si>
@@ -64,6 +64,18 @@
   </si>
   <si>
     <t>Store all past words in the cloud for a synchronized view</t>
+  </si>
+  <si>
+    <t>Add version info in the tray icon or somewhere in the application so users know which version they have</t>
+  </si>
+  <si>
+    <t>Add splitter image in the translation window so that users know they can resize the past words history panel</t>
+  </si>
+  <si>
+    <t>Add ability to hover over past word and show delete button for that one word, instead of right clicking to delete</t>
+  </si>
+  <si>
+    <t>Change the name of the product</t>
   </si>
 </sst>
 </file>
@@ -192,7 +204,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -227,7 +239,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -436,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,52 +535,87 @@
     </row>
     <row r="9" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9"/>
+    </row>
+    <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>2</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C9"/>
-    </row>
-    <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>2</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>2</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="C12"/>
+    </row>
+    <row r="13" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>2</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>2</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>2</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>2</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>3</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B17" t="s">
         <v>8</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C17" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C13">
-    <sortCondition ref="A2:A13"/>
+  <sortState ref="A2:C17">
+    <sortCondition ref="A2:A17"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Bugs.xlsx
+++ b/Bugs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Priority</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Change the name of the product</t>
+  </si>
+  <si>
+    <t>Add a review feature to let users review words they have learned</t>
   </si>
 </sst>
 </file>
@@ -448,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,18 +607,26 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>3</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>8</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C17">
-    <sortCondition ref="A2:A17"/>
+  <sortState ref="A2:XFD18">
+    <sortCondition ref="A2:A18"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Bugs.xlsx
+++ b/Bugs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Priority</t>
   </si>
@@ -79,6 +79,18 @@
   </si>
   <si>
     <t>Add a review feature to let users review words they have learned</t>
+  </si>
+  <si>
+    <t>Solution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added a list of pre-defined shortcut keys and attempt to register each one </t>
+  </si>
+  <si>
+    <t>Use ClickOnce to deploy</t>
+  </si>
+  <si>
+    <t>Add ability to deploy ClickOnce without hardcoding publisher name and product name</t>
   </si>
 </sst>
 </file>
@@ -451,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,6 +474,7 @@
     <col min="1" max="1" width="9.140625" style="3"/>
     <col min="2" max="2" width="110.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="90.5703125" customWidth="1"/>
+    <col min="4" max="4" width="68.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -474,6 +487,9 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
@@ -520,11 +536,14 @@
       <c r="C6" s="7"/>
     </row>
     <row r="7" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>1</v>
-      </c>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>14</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -563,14 +582,16 @@
       </c>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>2</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C12"/>
+      <c r="D12" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -581,11 +602,11 @@
       </c>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>2</v>
-      </c>
-      <c r="B14" s="7" t="s">
+    <row r="14" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>2</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -615,18 +636,26 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>3</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>8</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:XFD18">
-    <sortCondition ref="A2:A18"/>
+  <sortState ref="A2:D19">
+    <sortCondition ref="A2:A19"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Bugs.xlsx
+++ b/Bugs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Priority</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Add ability to deploy ClickOnce without hardcoding publisher name and product name</t>
+  </si>
+  <si>
+    <t>There might be a possibility that once the application registers a hotkey, next time it runs again that hotkey is unavailable and thus a different hotkey combination will be registered. This should not happen.</t>
   </si>
 </sst>
 </file>
@@ -142,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -151,14 +154,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,18 +485,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="3"/>
     <col min="2" max="2" width="110.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="90.5703125" customWidth="1"/>
-    <col min="4" max="4" width="68.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" customWidth="1"/>
+    <col min="4" max="4" width="40.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -492,170 +514,205 @@
       </c>
     </row>
     <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>1</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="10">
+        <v>1</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="7"/>
-    </row>
-    <row r="7" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>1</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>1</v>
-      </c>
-      <c r="B8" s="7" t="s">
+    <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>1</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="7"/>
-    </row>
-    <row r="9" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>1</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>2</v>
-      </c>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="12">
+        <v>2</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C10"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>2</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="C10" s="9"/>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>2</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>2</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>2</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>2</v>
-      </c>
-      <c r="B13" s="5" t="s">
+    <row r="13" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>2</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>2</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="7">
+        <v>2</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>2</v>
-      </c>
-      <c r="B15" s="7" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>2</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>2</v>
-      </c>
-      <c r="B16" s="7" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>2</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>2</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>2</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>2</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>2</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:4" s="4" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
         <v>3</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" s="9" t="s">
         <v>3</v>
       </c>
-    </row>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState ref="A2:D19">
-    <sortCondition ref="A2:A19"/>
+  <sortState ref="A2:D20">
+    <sortCondition ref="A2:A20"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Bugs.xlsx
+++ b/Bugs.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14175"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Priority</t>
   </si>
@@ -84,9 +84,6 @@
     <t>Solution</t>
   </si>
   <si>
-    <t xml:space="preserve">Added a list of pre-defined shortcut keys and attempt to register each one </t>
-  </si>
-  <si>
     <t>Use ClickOnce to deploy</t>
   </si>
   <si>
@@ -94,6 +91,21 @@
   </si>
   <si>
     <t>There might be a possibility that once the application registers a hotkey, next time it runs again that hotkey is unavailable and thus a different hotkey combination will be registered. This should not happen.</t>
+  </si>
+  <si>
+    <t>No longer applicable, border color added</t>
+  </si>
+  <si>
+    <t>Changed default size for past word panel so that it doesn't open up so big the first time user loads the application</t>
+  </si>
+  <si>
+    <t>Add ability for users to add new website for new language</t>
+  </si>
+  <si>
+    <t>Add ability to look up meaning of slang words using online slang dictionary, old sayings using other dictionaries, etc…</t>
+  </si>
+  <si>
+    <t>Add ability for users to speak a word, or a sentence and process using speech recognition</t>
   </si>
 </sst>
 </file>
@@ -241,7 +253,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -276,7 +288,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -485,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,7 +584,7 @@
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -595,124 +607,155 @@
       <c r="C9" s="9"/>
       <c r="D9" s="11"/>
     </row>
-    <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
-        <v>2</v>
-      </c>
-      <c r="B10" s="11" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>2</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>2</v>
-      </c>
-      <c r="B11" s="8" t="s">
+      <c r="C11" s="9"/>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>2</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>2</v>
-      </c>
-      <c r="B12" s="8" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>2</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>7</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>2</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>11</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="11"/>
     </row>
-    <row r="14" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>2</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>2</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
-        <v>2</v>
-      </c>
-      <c r="B15" s="11" t="s">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>2</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-    </row>
-    <row r="16" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
-        <v>2</v>
-      </c>
-      <c r="B16" s="11" t="s">
+      <c r="C16" s="8"/>
+      <c r="D16" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>2</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-    </row>
-    <row r="17" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
-        <v>2</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>2</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>2</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
     </row>
-    <row r="20" spans="1:4" s="4" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
+        <v>2</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>2</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>2</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>2</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="4" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
         <v>3</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B24" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C24" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="9"/>
-    </row>
-    <row r="21" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="D24" s="9"/>
+    </row>
   </sheetData>
-  <sortState ref="A2:D20">
-    <sortCondition ref="A2:A20"/>
+  <sortState ref="A2:XFD24">
+    <sortCondition ref="A2:A24"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Bugs.xlsx
+++ b/Bugs.xlsx
@@ -500,7 +500,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Bugs.xlsx
+++ b/Bugs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Priority</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>Add ability for users to speak a word, or a sentence and process using speech recognition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Look at hooking up Bing translator API or Google translator API. Bing offers free 2m characters a month, Google doesn't </t>
   </si>
 </sst>
 </file>
@@ -157,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -193,6 +196,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,11 +614,11 @@
       <c r="C9" s="9"/>
       <c r="D9" s="11"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="9" t="s">
+    <row r="10" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>1</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -742,20 +749,30 @@
       </c>
     </row>
     <row r="24" spans="1:4" s="4" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
+      <c r="A24" s="3">
+        <v>2</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24"/>
+      <c r="D24"/>
+    </row>
+    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="12">
         <v>3</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B25" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C25" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="9"/>
+      <c r="D25" s="9"/>
     </row>
   </sheetData>
-  <sortState ref="A2:XFD24">
-    <sortCondition ref="A2:A24"/>
+  <sortState ref="A2:D25">
+    <sortCondition ref="A2:A25"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Bugs.xlsx
+++ b/Bugs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Priority</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t xml:space="preserve">Look at hooking up Bing translator API or Google translator API. Bing offers free 2m characters a month, Google doesn't </t>
+  </si>
+  <si>
+    <t>Let the WebBrowser control lazy-load so the pop up form doesn't take too long to display</t>
   </si>
 </sst>
 </file>
@@ -504,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,21 +761,29 @@
       <c r="C24"/>
       <c r="D24"/>
     </row>
-    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>2</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
         <v>3</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B26" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C26" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="9"/>
+      <c r="D26" s="9"/>
     </row>
   </sheetData>
-  <sortState ref="A2:D25">
-    <sortCondition ref="A2:A25"/>
+  <sortState ref="A2:D26">
+    <sortCondition ref="A2:A26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Bugs.xlsx
+++ b/Bugs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Priority</t>
   </si>
@@ -112,6 +112,13 @@
   </si>
   <si>
     <t>Let the WebBrowser control lazy-load so the pop up form doesn't take too long to display</t>
+  </si>
+  <si>
+    <t>Needed Application.DoEvents before pasting</t>
+  </si>
+  <si>
+    <t>Changed control to use Url property instead of manually setting a static HTML content. Also  
+control was previously using older IE versions to browse web.</t>
   </si>
 </sst>
 </file>
@@ -510,7 +517,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,7 +525,7 @@
     <col min="1" max="1" width="9.140625" style="3"/>
     <col min="2" max="2" width="110.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.7109375" customWidth="1"/>
-    <col min="4" max="4" width="40.28515625" customWidth="1"/>
+    <col min="4" max="4" width="79.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -576,10 +583,10 @@
       <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
-        <v>1</v>
-      </c>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="7">
+        <v>1</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="11"/>
@@ -625,15 +632,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
-        <v>2</v>
-      </c>
-      <c r="B11" s="11" t="s">
+    <row r="11" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>2</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="9"/>
-      <c r="D11" s="8"/>
+      <c r="D11" s="11" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="12" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
@@ -761,12 +770,15 @@
       <c r="C24"/>
       <c r="D24"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>2</v>
-      </c>
-      <c r="B25" s="9" t="s">
+    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
+        <v>2</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>31</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">

--- a/Bugs.xlsx
+++ b/Bugs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Priority</t>
   </si>
@@ -119,6 +119,18 @@
   <si>
     <t>Changed control to use Url property instead of manually setting a static HTML content. Also  
 control was previously using older IE versions to browse web.</t>
+  </si>
+  <si>
+    <t>Fixed the past word control so that it works better with mouse hover and leave</t>
+  </si>
+  <si>
+    <t>Profile the application to see if there's any perf issues</t>
+  </si>
+  <si>
+    <t>Add ability to check for updates from the site</t>
+  </si>
+  <si>
+    <t>Prevent the config form from being resized</t>
   </si>
 </sst>
 </file>
@@ -514,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,21 +793,53 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="12">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>2</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>2</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>2</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>2</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
         <v>3</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B30" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C30" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="9"/>
+      <c r="D30" s="9"/>
     </row>
   </sheetData>
-  <sortState ref="A2:D26">
-    <sortCondition ref="A2:A26"/>
+  <sortState ref="A2:D30">
+    <sortCondition ref="A2:A30"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Bugs.xlsx
+++ b/Bugs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Priority</t>
   </si>
@@ -131,6 +131,13 @@
   </si>
   <si>
     <t>Prevent the config form from being resized</t>
+  </si>
+  <si>
+    <t>Change the minimum size for the translation window</t>
+  </si>
+  <si>
+    <t>Sometimes the app crashes after translation window is closed. Probably related to there being two webbrowser controls?
+Attempted to read or write protected memory. This is often an indication that other memory is corrupt.</t>
   </si>
 </sst>
 </file>
@@ -526,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,6 +843,22 @@
         <v>3</v>
       </c>
       <c r="D30" s="9"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>2</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>2</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:D30">

--- a/Bugs.xlsx
+++ b/Bugs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Priority</t>
   </si>
@@ -138,6 +138,9 @@
   <si>
     <t>Sometimes the app crashes after translation window is closed. Probably related to there being two webbrowser controls?
 Attempted to read or write protected memory. This is often an indication that other memory is corrupt.</t>
+  </si>
+  <si>
+    <t>Changed the way to add new site. Instead of using calibrate words, let users choose any word and then ask them for it</t>
   </si>
 </sst>
 </file>
@@ -533,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,10 +804,10 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>2</v>
-      </c>
-      <c r="B26" s="9" t="s">
+      <c r="A26" s="13">
+        <v>2</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -825,44 +828,52 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>2</v>
-      </c>
-      <c r="B29" s="9" t="s">
+      <c r="A29" s="13">
+        <v>2</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="12">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="13">
+        <v>2</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>2</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="12">
         <v>3</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B32" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C32" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="9"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>2</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>2</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>39</v>
+      <c r="D32" s="9"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>2</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D30">
-    <sortCondition ref="A2:A30"/>
+  <sortState ref="A2:D32">
+    <sortCondition ref="A2:A32"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Bugs.xlsx
+++ b/Bugs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Priority</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>Changed the way to add new site. Instead of using calibrate words, let users choose any word and then ask them for it</t>
+  </si>
+  <si>
+    <t>Prevent popup from the webbrowser control</t>
   </si>
 </sst>
 </file>
@@ -536,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,6 +872,14 @@
       </c>
       <c r="B33" s="9" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>1</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Bugs.xlsx
+++ b/Bugs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Priority</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>Prevent popup from the webbrowser control</t>
+  </si>
+  <si>
+    <t>Fixed code to allow adding sites with unicode letters in them</t>
   </si>
 </sst>
 </file>
@@ -539,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B36" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,234 +660,242 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>2</v>
-      </c>
-      <c r="B11" s="8" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>1</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>2</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="11" t="s">
+      <c r="C13" s="9"/>
+      <c r="D13" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>2</v>
-      </c>
-      <c r="B12" s="8" t="s">
+    <row r="14" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>2</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
-        <v>2</v>
-      </c>
-      <c r="B13" s="11" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>2</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>2</v>
-      </c>
-      <c r="B14" s="8" t="s">
+      <c r="C15" s="8"/>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>2</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="11"/>
-    </row>
-    <row r="15" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <v>2</v>
-      </c>
-      <c r="B15" s="8" t="s">
+      <c r="C16" s="8"/>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>2</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>2</v>
-      </c>
-      <c r="B16" s="8" t="s">
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>2</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="11" t="s">
+      <c r="C18" s="8"/>
+      <c r="D18" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
-        <v>2</v>
-      </c>
-      <c r="B17" s="11" t="s">
+    <row r="19" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>2</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-    </row>
-    <row r="18" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
-        <v>2</v>
-      </c>
-      <c r="B18" s="9" t="s">
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>2</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
-        <v>2</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
-        <v>2</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+    <row r="21" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
         <v>2</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+        <v>23</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
         <v>2</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>2</v>
       </c>
       <c r="B23" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>2</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>2</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="4" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>2</v>
-      </c>
-      <c r="B24" s="9" t="s">
+    <row r="26" spans="1:4" s="4" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>2</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C24"/>
-      <c r="D24"/>
-    </row>
-    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="13">
-        <v>2</v>
-      </c>
-      <c r="B25" s="8" t="s">
+      <c r="C26"/>
+      <c r="D26"/>
+    </row>
+    <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="13">
+        <v>2</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D27" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="13">
-        <v>2</v>
-      </c>
-      <c r="B26" s="8" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="13">
+        <v>2</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>2</v>
-      </c>
-      <c r="B27" s="9" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>2</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>2</v>
-      </c>
-      <c r="B28" s="9" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>2</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="13">
-        <v>2</v>
-      </c>
-      <c r="B29" s="8" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
+        <v>2</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="13">
-        <v>2</v>
-      </c>
-      <c r="B30" s="8" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="13">
+        <v>2</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>2</v>
-      </c>
-      <c r="B31" s="9" t="s">
+    <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>2</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="12">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>2</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="12">
         <v>3</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B35" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C35" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="9"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>2</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>1</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>41</v>
-      </c>
+      <c r="D35" s="9"/>
     </row>
   </sheetData>
-  <sortState ref="A2:D32">
-    <sortCondition ref="A2:A32"/>
+  <sortState ref="A2:XFD35">
+    <sortCondition ref="A2:A35"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
